--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -386,21 +386,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="2">
@@ -410,24 +410,24 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="3">
@@ -437,24 +437,24 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="4">
@@ -464,24 +464,24 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="5">
@@ -491,24 +491,24 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="6">
@@ -518,24 +518,24 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="7">
@@ -545,24 +545,24 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="8">
@@ -572,24 +572,24 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="9">
@@ -599,24 +599,24 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="10">
@@ -626,24 +626,24 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="11">
@@ -653,24 +653,24 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="12">
@@ -680,24 +680,24 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="D12" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="13">
@@ -707,24 +707,24 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="14">
@@ -734,24 +734,24 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="15">
@@ -761,24 +761,24 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="16">
@@ -788,24 +788,24 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="17">
@@ -815,24 +815,24 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="18">
@@ -842,24 +842,24 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="19">
@@ -869,24 +869,24 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="20">
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="21">
@@ -923,24 +923,24 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="22">
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="23">
@@ -977,24 +977,24 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="24">
@@ -1004,24 +1004,24 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="25">
@@ -1031,24 +1031,24 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="26">
@@ -1058,24 +1058,24 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="27">
@@ -1085,24 +1085,24 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="28">
@@ -1112,24 +1112,24 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="29">
@@ -1139,24 +1139,24 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="30">
@@ -1166,24 +1166,24 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="31">
@@ -1193,24 +1193,24 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="32">
@@ -1220,24 +1220,24 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="33">
@@ -1247,24 +1247,24 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="34">
@@ -1274,24 +1274,24 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="35">
@@ -1304,21 +1304,21 @@
         <v>30</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="36">
@@ -1328,24 +1328,24 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="37">
@@ -1355,24 +1355,24 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="38">
@@ -1382,24 +1382,24 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="39">
@@ -1409,24 +1409,24 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="40">
@@ -1436,24 +1436,24 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="41">
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="42">
@@ -1490,24 +1490,24 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D42" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="43">
@@ -1517,24 +1517,24 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1544,24 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="45">
@@ -1571,24 +1571,24 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1598,24 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="47">
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="48">
@@ -1652,24 +1652,24 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="49">
@@ -1679,24 +1679,24 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="50">
@@ -1706,24 +1706,24 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="51">
@@ -1733,24 +1733,24 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="52">
@@ -1760,24 +1760,24 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="53">
@@ -1787,24 +1787,24 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="54">
@@ -1814,24 +1814,24 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="55">
@@ -1841,24 +1841,24 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.783612050584007</v>
       </c>
     </row>
     <row r="56">
@@ -1868,16 +1868,16 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.443247440087296</v>
       </c>
     </row>
     <row r="57">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.42231260914578</v>
       </c>
     </row>
     <row r="58">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.42231260914578</v>
       </c>
     </row>
     <row r="59">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.9754502448008069</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="60">
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="61">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="62">
@@ -2030,16 +2030,16 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="63">
@@ -2060,13 +2060,13 @@
         <v>30</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="64">
@@ -2084,16 +2084,16 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="65">
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="66">
@@ -2138,16 +2138,16 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="67">
@@ -2165,16 +2165,16 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="68">
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="69">
@@ -2222,13 +2222,13 @@
         <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="70">
@@ -2246,16 +2246,16 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="71">
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="72">
@@ -2300,16 +2300,16 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.9635915709444292</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="73">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>800</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="74">
@@ -2354,16 +2354,16 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="75">
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.394856176087163</v>
       </c>
     </row>
     <row r="76">
@@ -2408,16 +2408,16 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.059451662396718</v>
       </c>
     </row>
     <row r="77">
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.002089295777422</v>
       </c>
     </row>
     <row r="78">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.002089295777422</v>
       </c>
     </row>
     <row r="79">
@@ -2489,16 +2489,16 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>1.002089295777422</v>
       </c>
     </row>
     <row r="80">
@@ -2519,13 +2519,13 @@
         <v>30</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.9649983123151769</v>
       </c>
     </row>
     <row r="81">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="82">
@@ -2570,16 +2570,16 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="83">
@@ -2600,13 +2600,13 @@
         <v>20</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="84">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="85">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>80</v>
@@ -2660,7 +2660,7 @@
         <v>300</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="86">
@@ -2678,16 +2678,16 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="87">
@@ -2705,16 +2705,16 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="88">
@@ -2732,16 +2732,16 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="89">
@@ -2759,16 +2759,16 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="90">
@@ -2786,16 +2786,16 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="91">
@@ -2816,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="92">
@@ -2840,16 +2840,16 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="93">
@@ -2867,16 +2867,16 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="94">
@@ -2894,16 +2894,16 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="95">
@@ -2921,16 +2921,16 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="96">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="97">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="98">
@@ -3002,16 +3002,16 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="99">
@@ -3029,16 +3029,16 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="100">
@@ -3056,16 +3056,16 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="101">
@@ -3083,24 +3083,24 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="102">
@@ -3110,24 +3110,24 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="103">
@@ -3137,24 +3137,24 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="104">
@@ -3164,24 +3164,24 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="105">
@@ -3191,24 +3191,24 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="106">
@@ -3218,24 +3218,24 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="107">
@@ -3245,24 +3245,24 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="108">
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="109">
@@ -3299,24 +3299,24 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="110">
@@ -3326,24 +3326,24 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="111">
@@ -3353,24 +3353,24 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="112">
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="113">
@@ -3407,24 +3407,24 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="114">
@@ -3434,24 +3434,24 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="115">
@@ -3461,24 +3461,24 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="116">
@@ -3488,24 +3488,24 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>500</v>
-      </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="117">
@@ -3515,24 +3515,24 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="118">
@@ -3542,24 +3542,24 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="119">
@@ -3569,24 +3569,24 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="120">
@@ -3596,24 +3596,24 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="121">
@@ -3623,24 +3623,24 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0.9424528301886792</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="122">
@@ -3650,16 +3650,16 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D122" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C122" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="E122" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="G122" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="123">
@@ -3677,24 +3677,24 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D123" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E123" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E123" s="0" t="n">
-        <v>550</v>
-      </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G123" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="124">
@@ -3704,16 +3704,16 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G124" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="125">
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="G125" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="126">
@@ -3758,16 +3758,16 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="G126" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="127">
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="G127" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="128">
@@ -3815,13 +3815,13 @@
         <v>80</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="129">
@@ -3839,16 +3839,16 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G129" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="130">
@@ -3866,16 +3866,16 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="131">
@@ -3893,16 +3893,16 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="132">
@@ -3920,16 +3920,16 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="133">
@@ -3947,16 +3947,16 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G133" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="134">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="135">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C135" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C135" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D135" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="136">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="137">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="G137" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="138">
@@ -4082,16 +4082,16 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="G138" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="139">
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1300</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G139" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="140">
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="G140" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="141">
@@ -4166,10 +4166,10 @@
         <v>80</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1500</v>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="142">
@@ -4190,16 +4190,16 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="143">
@@ -4217,16 +4217,16 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="G143" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="144">
@@ -4244,16 +4244,16 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="145">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="G145" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="146">
@@ -4298,16 +4298,16 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="G146" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="147">
@@ -4325,16 +4325,16 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="148">
@@ -4352,16 +4352,16 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F148" s="0" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="149">
@@ -4379,16 +4379,16 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="150">
@@ -4406,16 +4406,16 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="151">
@@ -4433,16 +4433,16 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="G151" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="152">
@@ -4460,16 +4460,16 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G152" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="153">
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="G153" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="154">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G154" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="155">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="156">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="157">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>120</v>
@@ -4604,7 +4604,7 @@
         <v>400</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="158">
@@ -4625,13 +4625,13 @@
         <v>90</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="159">
@@ -4652,13 +4652,13 @@
         <v>30</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="160">
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="161">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>120</v>
@@ -4712,7 +4712,7 @@
         <v>500</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="162">
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1500</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="163">
@@ -4757,24 +4757,24 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D163" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E163" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E163" s="0" t="n">
-        <v>550</v>
-      </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="164">
@@ -4784,16 +4784,16 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="165">
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C165" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C165" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D165" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="166">
@@ -4838,16 +4838,16 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="167">
@@ -4865,16 +4865,16 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="168">
@@ -4892,16 +4892,16 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="F168" s="0" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="169">
@@ -4919,16 +4919,16 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="170">
@@ -4946,16 +4946,16 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="171">
@@ -4973,16 +4973,16 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="172">
@@ -5000,16 +5000,16 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F172" s="0" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="173">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F173" s="0" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="174">
@@ -5054,16 +5054,16 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="175">
@@ -5081,16 +5081,16 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="176">
@@ -5108,16 +5108,16 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="177">
@@ -5135,16 +5135,16 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="178">
@@ -5162,16 +5162,16 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="179">
@@ -5189,16 +5189,16 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C179" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C179" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D179" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="180">
@@ -5216,16 +5216,16 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="181">
@@ -5243,13 +5243,13 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>1300</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>2.151728254152794</v>
       </c>
     </row>
     <row r="182">
@@ -5270,24 +5270,24 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G182" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.688690063227186</v>
       </c>
     </row>
     <row r="183">
@@ -5297,24 +5297,24 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G183" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="184">
@@ -5324,24 +5324,24 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G184" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="185">
@@ -5351,24 +5351,24 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F185" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G185" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="186">
@@ -5381,21 +5381,21 @@
         <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="187">
@@ -5405,24 +5405,24 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G187" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="188">
@@ -5432,24 +5432,24 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F188" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="189">
@@ -5459,24 +5459,24 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G189" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="190">
@@ -5486,24 +5486,24 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="191">
@@ -5513,24 +5513,24 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="192">
@@ -5540,24 +5540,24 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F192" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="193">
@@ -5567,24 +5567,24 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F193" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="194">
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D194" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E194" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E194" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="195">
@@ -5621,24 +5621,24 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="196">
@@ -5648,24 +5648,24 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G196" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="197">
@@ -5675,24 +5675,24 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C197" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C197" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D197" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F197" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="198">
@@ -5702,24 +5702,24 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="199">
@@ -5729,24 +5729,24 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="G199" s="0" t="n">
-        <v>0.02307604264827788</v>
+        <v>1.027426495724064</v>
       </c>
     </row>
     <row r="200">
@@ -5759,21 +5759,2721 @@
         <v>10</v>
       </c>
       <c r="C200" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>1.027426495724064</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>rule201</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>1.027426495724064</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>rule202</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="C202" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>rule203</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>rule204</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>rule205</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>rule206</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="C206" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E206" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F200" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G200" s="0" t="n">
-        <v>0.02307604264827788</v>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>rule207</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>rule208</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>rule209</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>rule210</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>rule211</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>rule212</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>rule213</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>rule214</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>rule215</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>rule216</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>rule217</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>rule218</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F218" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>rule219</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F219" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>0.8971058358182037</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>rule220</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>rule221</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>rule222</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>rule223</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>rule224</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>rule225</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>rule226</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F226" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>0.8572646293580085</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>rule227</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>rule228</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>rule229</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>rule230</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>rule231</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>rule232</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>rule233</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>rule234</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>rule235</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>rule236</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>rule237</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>rule238</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F238" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>rule239</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>rule240</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F240" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>rule241</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>rule242</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>rule243</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>rule244</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F244" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>rule245</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>rule246</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F246" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>rule247</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>rule248</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F248" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>rule249</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>rule250</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>rule251</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F251" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>rule252</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>rule253</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>rule254</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F254" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>rule255</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>rule256</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>rule257</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>rule258</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>rule259</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>rule260</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G260" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>rule261</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>rule262</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G262" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>rule263</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F263" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>rule264</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>0.8482075471698113</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>rule265</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>rule266</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>rule267</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>rule268</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F268" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>rule269</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>rule270</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>rule271</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>rule272</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F272" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>rule273</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>rule274</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>rule275</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F275" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>rule276</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F276" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>rule277</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>rule278</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>rule279</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>rule280</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F280" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>0.7532677123826129</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>rule281</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F281" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>rule282</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F282" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>rule283</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F283" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>rule284</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F284" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>rule285</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>rule286</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F286" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>rule287</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F287" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>rule288</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F288" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>rule289</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>rule290</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F290" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>rule291</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F291" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>rule292</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F292" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>rule293</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>rule294</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>rule295</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F295" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>rule296</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F296" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>rule297</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>rule298</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F298" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>rule299</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F299" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>0.7238599049497605</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>rule300</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F300" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>0.7238599049497605</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -383,16 +383,16 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
@@ -400,7 +400,10 @@
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="2">
@@ -413,13 +416,13 @@
         <v>70</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
@@ -427,7 +430,10 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="3">
@@ -437,16 +443,16 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -454,7 +460,10 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +479,7 @@
         <v>140</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>800</v>
@@ -481,7 +490,10 @@
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="5">
@@ -491,16 +503,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -508,7 +520,10 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="6">
@@ -518,16 +533,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -535,7 +550,10 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +563,16 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -562,7 +580,10 @@
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +593,16 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
@@ -589,7 +610,10 @@
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="9">
@@ -599,16 +623,16 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
@@ -616,7 +640,10 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="10">
@@ -626,16 +653,16 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -643,7 +670,10 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="11">
@@ -653,13 +683,13 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>800</v>
@@ -670,7 +700,10 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="12">
@@ -680,16 +713,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
@@ -697,7 +730,10 @@
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="13">
@@ -707,13 +743,13 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1500</v>
@@ -724,7 +760,10 @@
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +773,13 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>900</v>
@@ -751,7 +790,10 @@
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +803,16 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -778,7 +820,10 @@
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="16">
@@ -788,16 +833,16 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
@@ -805,7 +850,10 @@
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="17">
@@ -815,16 +863,16 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
@@ -832,7 +880,10 @@
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="18">
@@ -842,16 +893,16 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
@@ -859,7 +910,10 @@
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="19">
@@ -869,16 +923,16 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -886,7 +940,10 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="20">
@@ -896,16 +953,16 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
@@ -913,7 +970,10 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="21">
@@ -923,16 +983,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
@@ -940,7 +1000,10 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="22">
@@ -953,13 +1016,13 @@
         <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -967,7 +1030,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="23">
@@ -977,16 +1043,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -994,7 +1060,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="24">
@@ -1004,16 +1073,16 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
@@ -1021,7 +1090,10 @@
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="25">
@@ -1031,16 +1103,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1048,7 +1120,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="26">
@@ -1058,16 +1133,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1075,7 +1150,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="27">
@@ -1085,13 +1163,13 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>800</v>
@@ -1102,7 +1180,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="28">
@@ -1112,16 +1193,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1129,7 +1210,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="29">
@@ -1139,24 +1223,27 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="30">
@@ -1166,16 +1253,16 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1183,7 +1270,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="31">
@@ -1193,16 +1283,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1210,7 +1300,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="32">
@@ -1220,16 +1313,16 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1237,7 +1330,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="33">
@@ -1247,24 +1343,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D33" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="34">
@@ -1274,16 +1373,16 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D34" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
@@ -1291,7 +1390,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="35">
@@ -1301,16 +1403,16 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -1318,7 +1420,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="36">
@@ -1328,16 +1433,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D36" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1345,7 +1450,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="37">
@@ -1355,16 +1463,16 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -1372,7 +1480,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="38">
@@ -1382,13 +1493,13 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1300</v>
@@ -1399,7 +1510,10 @@
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="39">
@@ -1409,16 +1523,16 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1426,7 +1540,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="40">
@@ -1436,16 +1553,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1453,7 +1570,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="41">
@@ -1463,16 +1583,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1480,7 +1600,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="42">
@@ -1490,13 +1613,13 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1300</v>
@@ -1507,7 +1630,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="43">
@@ -1517,16 +1643,16 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D43" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1534,7 +1660,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="45">
@@ -1571,16 +1703,16 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
@@ -1588,7 +1720,10 @@
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D46" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="47">
@@ -1625,16 +1763,16 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
@@ -1642,7 +1780,10 @@
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="48">
@@ -1652,16 +1793,16 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
@@ -1669,7 +1810,10 @@
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="49">
@@ -1679,16 +1823,16 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
@@ -1696,7 +1840,10 @@
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="50">
@@ -1706,16 +1853,16 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
@@ -1723,7 +1870,10 @@
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="51">
@@ -1733,16 +1883,16 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
@@ -1750,7 +1900,10 @@
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="52">
@@ -1760,16 +1913,16 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
@@ -1777,7 +1930,10 @@
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="53">
@@ -1787,16 +1943,16 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
@@ -1804,7 +1960,10 @@
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="54">
@@ -1814,24 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D54" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="55">
@@ -1841,16 +2003,16 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D55" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -1858,7 +2020,10 @@
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.783612050584007</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="56">
@@ -1868,24 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.443247440087296</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="57">
@@ -1895,24 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.42231260914578</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="58">
@@ -1922,24 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.42231260914578</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="59">
@@ -1949,16 +2123,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1966,7 +2140,10 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>1.3810107628852</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.2084800523403244</v>
       </c>
     </row>
     <row r="60">
@@ -1976,16 +2153,16 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
@@ -1993,7 +2170,10 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>1.3810107628852</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.2084800523403244</v>
       </c>
     </row>
     <row r="61">
@@ -2003,16 +2183,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2020,7 +2200,10 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="62">
@@ -2030,16 +2213,16 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
@@ -2047,7 +2230,10 @@
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="63">
@@ -2057,16 +2243,16 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -2074,7 +2260,10 @@
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="64">
@@ -2084,16 +2273,16 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
@@ -2101,7 +2290,10 @@
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="65">
@@ -2111,16 +2303,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -2128,7 +2320,10 @@
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="66">
@@ -2138,16 +2333,16 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
@@ -2155,7 +2350,10 @@
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="67">
@@ -2165,16 +2363,16 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -2182,7 +2380,10 @@
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="68">
@@ -2192,16 +2393,16 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
@@ -2209,7 +2410,10 @@
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="69">
@@ -2219,16 +2423,16 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
@@ -2236,7 +2440,10 @@
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="70">
@@ -2246,16 +2453,16 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
@@ -2263,7 +2470,10 @@
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.9162024923305465</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6.743877750313253e-05</v>
       </c>
     </row>
     <row r="71">
@@ -2273,16 +2483,16 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
@@ -2290,7 +2500,10 @@
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.906190623428339</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0003321134666148152</v>
       </c>
     </row>
     <row r="72">
@@ -2300,10 +2513,10 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>650</v>
@@ -2317,7 +2530,10 @@
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.906190623428339</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0003321134666148152</v>
       </c>
     </row>
     <row r="73">
@@ -2327,10 +2543,10 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>650</v>
@@ -2344,7 +2560,10 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.906190623428339</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0003321134666148152</v>
       </c>
     </row>
     <row r="74">
@@ -2354,16 +2573,16 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -2371,7 +2590,10 @@
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.8911887289216922</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.001103958772419423</v>
       </c>
     </row>
     <row r="75">
@@ -2381,16 +2603,16 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -2398,7 +2620,10 @@
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.394856176087163</v>
+        <v>0.8911887289216922</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.001103958772419423</v>
       </c>
     </row>
     <row r="76">
@@ -2408,16 +2633,16 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
@@ -2425,7 +2650,10 @@
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.059451662396718</v>
+        <v>0.8911887289216922</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.001103958772419423</v>
       </c>
     </row>
     <row r="77">
@@ -2435,13 +2663,13 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1100</v>
@@ -2452,7 +2680,10 @@
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.002089295777422</v>
+        <v>0.6496250453506951</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.04005457434576939</v>
       </c>
     </row>
     <row r="78">
@@ -2462,16 +2693,16 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
@@ -2479,7 +2710,10 @@
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.002089295777422</v>
+        <v>0.6496250453506951</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.04005457434576939</v>
       </c>
     </row>
     <row r="79">
@@ -2489,13 +2723,13 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1100</v>
@@ -2506,7 +2740,10 @@
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.002089295777422</v>
+        <v>0.6496250453506951</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.04005457434576939</v>
       </c>
     </row>
     <row r="80">
@@ -2516,16 +2753,16 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
@@ -2533,7 +2770,10 @@
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.9649983123151769</v>
+        <v>0.6496250453506951</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.04005457434576939</v>
       </c>
     </row>
     <row r="81">
@@ -2546,13 +2786,13 @@
         <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
@@ -2560,7 +2800,10 @@
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.6316430801043686</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.08571516518390457</v>
       </c>
     </row>
     <row r="82">
@@ -2573,13 +2816,13 @@
         <v>40</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
@@ -2587,7 +2830,10 @@
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.6316430801043686</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.08571516518390457</v>
       </c>
     </row>
     <row r="83">
@@ -2597,16 +2843,16 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
@@ -2614,7 +2860,10 @@
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.6316430801043686</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.08571516518390457</v>
       </c>
     </row>
     <row r="84">
@@ -2624,16 +2873,16 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
@@ -2641,7 +2890,10 @@
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.6316430801043686</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.08571516518390457</v>
       </c>
     </row>
     <row r="85">
@@ -2651,16 +2903,16 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -2668,7 +2920,10 @@
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.3231726064515187</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.00604898687811503</v>
       </c>
     </row>
     <row r="86">
@@ -2678,16 +2933,16 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
@@ -2695,7 +2950,10 @@
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.3231726064515187</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.00604898687811503</v>
       </c>
     </row>
     <row r="87">
@@ -2705,16 +2963,16 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
@@ -2722,7 +2980,10 @@
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2239732279686226</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0002820080133565735</v>
       </c>
     </row>
     <row r="88">
@@ -2732,16 +2993,16 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
@@ -2749,7 +3010,10 @@
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2239732279686226</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0002820080133565735</v>
       </c>
     </row>
     <row r="89">
@@ -2759,24 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D89" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H89" t="n">
         <v>0</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="90">
@@ -2786,24 +3053,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>0.8482075471698113</v>
       </c>
     </row>
     <row r="91">
@@ -2816,13 +3086,13 @@
         <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
@@ -2830,7 +3100,10 @@
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2840,16 +3113,16 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
@@ -2857,7 +3130,10 @@
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2867,16 +3143,16 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
@@ -2884,7 +3160,10 @@
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2894,16 +3173,16 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
@@ -2911,7 +3190,10 @@
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2924,13 +3206,13 @@
         <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
@@ -2938,7 +3220,10 @@
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2948,16 +3233,16 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
@@ -2965,7 +3250,10 @@
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2975,16 +3263,16 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
@@ -2992,7 +3280,10 @@
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3002,16 +3293,16 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
@@ -3019,7 +3310,10 @@
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3029,16 +3323,16 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
@@ -3046,7 +3340,10 @@
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3056,16 +3353,16 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
@@ -3073,7 +3370,10 @@
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.8482075471698113</v>
+        <v>0.2071801337523511</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -386,24 +386,22 @@
         <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="2">
@@ -416,24 +414,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +439,25 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="4">
@@ -476,24 +470,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="5">
@@ -506,24 +498,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +523,25 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="7">
@@ -566,24 +554,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +579,25 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +607,25 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.5770279418606015</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.618577010301618</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +635,25 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="11">
@@ -686,24 +666,22 @@
         <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="12">
@@ -716,24 +694,22 @@
         <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="13">
@@ -746,24 +722,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +747,25 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +775,25 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4161343174419354</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>0.03712072690478766</v>
       </c>
     </row>
     <row r="16">
@@ -833,27 +803,25 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4158560146273942</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>0.03717175449255417</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +831,25 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4158560146273942</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>0.03717175449255417</v>
       </c>
     </row>
     <row r="18">
@@ -893,27 +859,25 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4158560146273942</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0</v>
+        <v>0.03717175449255417</v>
       </c>
     </row>
     <row r="19">
@@ -923,27 +887,25 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4158560146273942</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>0.03717175449255417</v>
       </c>
     </row>
     <row r="20">
@@ -956,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>300</v>
@@ -964,16 +926,14 @@
       <c r="E20" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F20" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="21">
@@ -983,27 +943,25 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1013,27 +971,25 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1043,27 +999,25 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1073,27 +1027,25 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1103,27 +1055,25 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1133,27 +1083,25 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1166,24 +1114,22 @@
         <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1193,27 +1139,25 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="29">
@@ -1223,27 +1167,25 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1253,27 +1195,25 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1283,27 +1223,25 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2378621809626339</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>3.482981503790165e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1316,24 +1254,22 @@
         <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.2</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2226652222852911</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>2.284747577636736e-06</v>
       </c>
     </row>
     <row r="33">
@@ -1343,27 +1279,25 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2095710024808735</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>6.152222453570806e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1373,27 +1307,25 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2095710024808735</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0</v>
+        <v>6.152222453570806e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1403,27 +1335,25 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2095710024808735</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>6.152222453570806e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1436,24 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2095710024808735</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0</v>
+        <v>6.152222453570806e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1463,27 +1391,25 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.207180133752351</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>7.703719777548943e-34</v>
       </c>
     </row>
     <row r="38">
@@ -1493,27 +1419,25 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1523,27 +1447,25 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="40">
@@ -1556,24 +1478,22 @@
         <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="41">
@@ -1583,27 +1503,25 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="42">
@@ -1613,27 +1531,25 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="43">
@@ -1643,27 +1559,25 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1673,27 +1587,25 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="45">
@@ -1706,24 +1618,22 @@
         <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1733,27 +1643,25 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1671,25 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1699,25 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1727,25 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="50">
@@ -1856,24 +1758,22 @@
         <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1783,25 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1811,25 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="53">
@@ -1943,27 +1839,25 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F53" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1867,25 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2064671650407452</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0</v>
+        <v>7.041404643601095e-06</v>
       </c>
     </row>
     <row r="55">
@@ -2003,27 +1895,25 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.8</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2057541963291394</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0</v>
+        <v>2.81656185744036e-05</v>
       </c>
     </row>
     <row r="56">
@@ -2036,24 +1926,22 @@
         <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="57">
@@ -2066,24 +1954,22 @@
         <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="58">
@@ -2093,27 +1979,25 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="59">
@@ -2123,27 +2007,25 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="60">
@@ -2153,27 +2035,25 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2063,25 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F61" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.192902700969393</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.0002038450868718849</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="62">
@@ -2216,24 +2094,22 @@
         <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.1826282492321624</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.0006027950334926806</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="63">
@@ -2246,24 +2122,22 @@
         <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.1826282492321624</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.0006027950334926806</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="64">
@@ -2279,21 +2153,19 @@
         <v>110</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.1826282492321624</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.0006027950334926806</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="65">
@@ -2306,24 +2178,22 @@
         <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.1826282492321624</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.0006027950334926806</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="66">
@@ -2336,24 +2206,22 @@
         <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.1826282492321624</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.0006027950334926806</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="67">
@@ -2363,27 +2231,25 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.1497921149516113</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.003293384701874061</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="68">
@@ -2393,27 +2259,25 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F68" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.6</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.1497921149516113</v>
+        <v>0.2043282589059277</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.003293384701874061</v>
+        <v>0.0001126624742976145</v>
       </c>
     </row>
     <row r="69">
@@ -2423,27 +2287,25 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.1497921149516113</v>
+        <v>0.2036152901943218</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.003293384701874061</v>
+        <v>0.0001760351160900256</v>
       </c>
     </row>
     <row r="70">
@@ -2453,27 +2315,25 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>0.2036152901943218</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.0001760351160900256</v>
       </c>
     </row>
     <row r="71">
@@ -2483,27 +2343,25 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.06497489539476442</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.313984597547841</v>
       </c>
     </row>
     <row r="72">
@@ -2513,27 +2371,25 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.06497489539476442</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.313984597547841</v>
       </c>
     </row>
     <row r="73">
@@ -2543,27 +2399,25 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.06497489539476442</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.313984597547841</v>
       </c>
     </row>
     <row r="74">
@@ -2573,27 +2427,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.06497489539476442</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.313984597547841</v>
       </c>
     </row>
     <row r="75">
@@ -2603,27 +2455,25 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.06497489539476442</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.313984597547841</v>
       </c>
     </row>
     <row r="76">
@@ -2633,27 +2483,25 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F76" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="77">
@@ -2663,16 +2511,16 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
@@ -2680,10 +2528,10 @@
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="78">
@@ -2693,27 +2541,25 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="79">
@@ -2723,13 +2569,13 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1100</v>
@@ -2740,10 +2586,10 @@
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="80">
@@ -2753,27 +2599,25 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="81">
@@ -2783,13 +2627,13 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1100</v>
@@ -2800,10 +2644,10 @@
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="82">
@@ -2813,10 +2657,10 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>550</v>
@@ -2824,16 +2668,14 @@
       <c r="E82" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="83">
@@ -2843,10 +2685,10 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>550</v>
@@ -2854,16 +2696,14 @@
       <c r="E83" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="84">
@@ -2873,16 +2713,16 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
@@ -2890,10 +2730,10 @@
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="85">
@@ -2903,16 +2743,16 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -2920,10 +2760,10 @@
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="86">
@@ -2933,27 +2773,25 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F86" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="87">
@@ -2963,27 +2801,25 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="88">
@@ -2993,16 +2829,16 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
@@ -3010,10 +2846,10 @@
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="89">
@@ -3023,16 +2859,16 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
@@ -3040,10 +2876,10 @@
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="90">
@@ -3053,16 +2889,16 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
@@ -3070,10 +2906,10 @@
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="91">
@@ -3083,27 +2919,25 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="92">
@@ -3113,27 +2947,25 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F92" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="93">
@@ -3143,10 +2975,10 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>550</v>
@@ -3154,16 +2986,14 @@
       <c r="E93" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F93" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="94">
@@ -3173,10 +3003,10 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>550</v>
@@ -3184,16 +3014,14 @@
       <c r="E94" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F94" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F94" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0</v>
+        <v>-0.1136925358935903</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.2431659877497917</v>
       </c>
     </row>
     <row r="95">
@@ -3203,27 +3031,25 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F95" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0</v>
+        <v>-0.1136925358935903</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.5776656016487478</v>
+        <v>0.2431659877497917</v>
       </c>
     </row>
     <row r="96">
@@ -3233,10 +3059,10 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>550</v>
@@ -3244,16 +3070,14 @@
       <c r="E96" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F96" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F96" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0</v>
+        <v>-0.1210250545396901</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.2333290178328673</v>
       </c>
     </row>
     <row r="97">
@@ -3263,10 +3087,10 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>550</v>
@@ -3274,16 +3098,14 @@
       <c r="E97" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F97" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F97" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0</v>
+        <v>-0.1210250545396901</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.2333290178328673</v>
       </c>
     </row>
     <row r="98">
@@ -3293,27 +3115,25 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F98" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0</v>
+        <v>-0.1210250545396901</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.5776656016487478</v>
+        <v>0.2333290178328673</v>
       </c>
     </row>
     <row r="99">
@@ -3329,21 +3149,19 @@
         <v>80</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="F99" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F99" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0</v>
+        <v>-0.1802844696824023</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.1617217089160844</v>
       </c>
     </row>
     <row r="100">
@@ -3359,21 +3177,19 @@
         <v>80</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="F100" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F100" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0</v>
+        <v>-0.1802844696824023</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.630260744486758</v>
+        <v>0.1617217089160844</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -383,25 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>0.5</v>
+        <v>650</v>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="2">
@@ -411,25 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5</v>
+        <v>600</v>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5</v>
+        <v>1300</v>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="4">
@@ -467,25 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5</v>
+        <v>650</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="5">
@@ -495,25 +503,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5</v>
+        <v>1100</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="6">
@@ -523,25 +533,27 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.5</v>
+        <v>550</v>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="7">
@@ -551,25 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.5</v>
+        <v>700</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="8">
@@ -579,25 +593,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.5</v>
+        <v>1300</v>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="9">
@@ -607,25 +623,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>0.5</v>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="10">
@@ -635,25 +653,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.5</v>
+        <v>1300</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="11">
@@ -666,22 +686,24 @@
         <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.5</v>
+        <v>1300</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="12">
@@ -691,25 +713,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
+        <v>650</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +743,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.5</v>
+        <v>700</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="14">
@@ -747,25 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0.5</v>
+        <v>650</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="15">
@@ -775,25 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.5</v>
+        <v>1100</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4161343174419354</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.03712072690478766</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="16">
@@ -803,25 +833,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.6</v>
+        <v>1500</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4158560146273942</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.03717175449255417</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="17">
@@ -831,25 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.6</v>
+        <v>1000</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4158560146273942</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.03717175449255417</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="18">
@@ -859,25 +893,27 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.6</v>
+        <v>750</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.4158560146273942</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.03717175449255417</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="19">
@@ -887,25 +923,27 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.6</v>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.4158560146273942</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.03717175449255417</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="20">
@@ -915,25 +953,27 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.15</v>
+        <v>1300</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="21">
@@ -943,25 +983,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>0.15</v>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="22">
@@ -971,25 +1013,27 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.15</v>
+        <v>700</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="23">
@@ -999,25 +1043,27 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0.15</v>
+        <v>1100</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="24">
@@ -1027,25 +1073,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.15</v>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="25">
@@ -1055,25 +1103,27 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="D25" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0.15</v>
+        <v>550</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="26">
@@ -1083,25 +1133,27 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.15</v>
+        <v>1000</v>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="27">
@@ -1111,25 +1163,27 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.15</v>
+        <v>500</v>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="28">
@@ -1139,25 +1193,27 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0.15</v>
+        <v>550</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="29">
@@ -1167,25 +1223,27 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.15</v>
+        <v>1300</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="30">
@@ -1195,25 +1253,27 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.15</v>
+        <v>700</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="31">
@@ -1223,25 +1283,27 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.15</v>
+        <v>1300</v>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2378621809626339</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>3.482981503790165e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1316,24 @@
         <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0.2</v>
+        <v>1300</v>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.2226652222852911</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>2.284747577636736e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="33">
@@ -1279,25 +1343,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.3</v>
+        <v>800</v>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.2095710024808735</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>6.152222453570806e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1373,27 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0.3</v>
+        <v>1000</v>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.2095710024808735</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6.152222453570806e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="35">
@@ -1335,25 +1403,27 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.3</v>
+        <v>1000</v>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.2095710024808735</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>6.152222453570806e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="36">
@@ -1363,25 +1433,27 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.3</v>
+        <v>1300</v>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.2095710024808735</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>6.152222453570806e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="37">
@@ -1391,25 +1463,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.207180133752351</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>7.703719777548943e-34</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="38">
@@ -1419,25 +1493,27 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.9</v>
+        <v>1000</v>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="39">
@@ -1447,25 +1523,27 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.9</v>
+        <v>800</v>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="40">
@@ -1475,25 +1553,27 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.9</v>
+        <v>1300</v>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="41">
@@ -1503,25 +1583,27 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0.9</v>
+        <v>1000</v>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="42">
@@ -1531,25 +1613,27 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0.9</v>
+        <v>650</v>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="43">
@@ -1559,25 +1643,27 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0.9</v>
+        <v>500</v>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="44">
@@ -1587,25 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F44" s="0" t="n">
-        <v>0.9</v>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="45">
@@ -1615,25 +1703,27 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F45" s="0" t="n">
-        <v>0.9</v>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="46">
@@ -1643,25 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0.9</v>
+        <v>650</v>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="47">
@@ -1671,25 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0.9</v>
+        <v>650</v>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="48">
@@ -1699,25 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.9</v>
+        <v>700</v>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="49">
@@ -1727,25 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0.9</v>
+        <v>1300</v>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="50">
@@ -1755,25 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0.9</v>
+        <v>1300</v>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="51">
@@ -1783,25 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0.9</v>
+        <v>1000</v>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="52">
@@ -1811,25 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0.9</v>
+        <v>1100</v>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="53">
@@ -1839,25 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.9</v>
+        <v>1300</v>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="54">
@@ -1867,25 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.9</v>
+        <v>1000</v>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.2064671650407452</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>7.041404643601095e-06</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="55">
@@ -1895,25 +2003,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0.8</v>
+        <v>1000</v>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.2057541963291394</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>2.81656185744036e-05</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="56">
@@ -1923,25 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0.6</v>
+        <v>650</v>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="57">
@@ -1951,25 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0.6</v>
+        <v>900</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="58">
@@ -1979,25 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>0.6</v>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="59">
@@ -2007,25 +2123,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0.6</v>
+        <v>1500</v>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="60">
@@ -2035,25 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>0.6</v>
+        <v>750</v>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="61">
@@ -2063,25 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>0.6</v>
+        <v>1000</v>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="62">
@@ -2091,25 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F62" s="0" t="n">
-        <v>0.6</v>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="63">
@@ -2125,19 +2249,19 @@
         <v>80</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="64">
@@ -2150,22 +2274,22 @@
         <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="65">
@@ -2178,22 +2302,22 @@
         <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="66">
@@ -2206,22 +2330,22 @@
         <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="67">
@@ -2237,19 +2361,19 @@
         <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="68">
@@ -2262,22 +2386,22 @@
         <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.2043282589059277</v>
+        <v>0.9867203698685105</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.0001126624742976145</v>
+        <v>0.211957168283222</v>
       </c>
     </row>
     <row r="69">
@@ -2287,25 +2411,25 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.2036152901943218</v>
+        <v>0.8952093045474215</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.0001760351160900256</v>
+        <v>0.4574141460820981</v>
       </c>
     </row>
     <row r="70">
@@ -2315,25 +2439,25 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.2036152901943218</v>
+        <v>0.8952093045474215</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.0001760351160900256</v>
+        <v>0.4574141460820981</v>
       </c>
     </row>
     <row r="71">
@@ -2343,25 +2467,25 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>-0.06497489539476442</v>
+        <v>0.8727780928448713</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.313984597547841</v>
+        <v>0.4882588387589283</v>
       </c>
     </row>
     <row r="72">
@@ -2371,25 +2495,25 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F72" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>0.15</v>
-      </c>
       <c r="G72" s="0" t="n">
-        <v>-0.06497489539476442</v>
+        <v>0.8571092366200752</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.313984597547841</v>
+        <v>0.5104017415515943</v>
       </c>
     </row>
     <row r="73">
@@ -2399,25 +2523,25 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.15</v>
+        <v>20</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>-0.06497489539476442</v>
+        <v>0.8571092366200752</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.313984597547841</v>
+        <v>0.5104017415515943</v>
       </c>
     </row>
     <row r="74">
@@ -2427,25 +2551,25 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>-0.06497489539476442</v>
+        <v>0.7966204540635403</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.313984597547841</v>
+        <v>0.6004899179462169</v>
       </c>
     </row>
     <row r="75">
@@ -2455,25 +2579,25 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>-0.06497489539476442</v>
+        <v>0.7966204540635403</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.313984597547841</v>
+        <v>0.6004899179462169</v>
       </c>
     </row>
     <row r="76">
@@ -2483,25 +2607,25 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.7966204540635403</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6004899179462169</v>
       </c>
     </row>
     <row r="77">
@@ -2511,27 +2635,25 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.7778878407934449</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6298731140474824</v>
       </c>
     </row>
     <row r="78">
@@ -2541,25 +2663,25 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.7778878407934449</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6298731140474824</v>
       </c>
     </row>
     <row r="79">
@@ -2569,27 +2691,25 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.7778878407934449</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6298731140474824</v>
       </c>
     </row>
     <row r="80">
@@ -2599,25 +2719,25 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.7778878407934449</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6298731140474824</v>
       </c>
     </row>
     <row r="81">
@@ -2630,24 +2750,22 @@
         <v>10</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.4869107348663609</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.009587345632608253</v>
       </c>
     </row>
     <row r="82">
@@ -2660,22 +2778,22 @@
         <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2477371767627378</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.01194251126184413</v>
       </c>
     </row>
     <row r="83">
@@ -2688,22 +2806,22 @@
         <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2477371767627378</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.01194251126184413</v>
       </c>
     </row>
     <row r="84">
@@ -2713,27 +2831,25 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D84" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E84" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E84" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F84" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="85">
@@ -2746,24 +2862,22 @@
         <v>10</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="86">
@@ -2776,22 +2890,22 @@
         <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="87">
@@ -2804,22 +2918,22 @@
         <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="88">
@@ -2829,27 +2943,25 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="89">
@@ -2862,24 +2974,22 @@
         <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2213000639069323</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.007822552253018238</v>
       </c>
     </row>
     <row r="90">
@@ -2889,27 +2999,25 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2184225712935411</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.0002829085932990858</v>
       </c>
     </row>
     <row r="91">
@@ -2919,25 +3027,25 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2184225712935411</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.0002829085932990858</v>
       </c>
     </row>
     <row r="92">
@@ -2947,25 +3055,25 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2184225712935411</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.0002829085932990858</v>
       </c>
     </row>
     <row r="93">
@@ -2975,25 +3083,25 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2184225712935411</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.0002829085932990858</v>
       </c>
     </row>
     <row r="94">
@@ -3009,19 +3117,19 @@
         <v>90</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.1136925358935903</v>
+        <v>0.2092665706916757</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.2431659877497917</v>
+        <v>6.902019771882005e-05</v>
       </c>
     </row>
     <row r="95">
@@ -3037,19 +3145,19 @@
         <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.15</v>
+        <v>70</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-0.1136925358935903</v>
+        <v>0.2092665706916757</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.2431659877497917</v>
+        <v>6.902019771882005e-05</v>
       </c>
     </row>
     <row r="96">
@@ -3062,22 +3170,22 @@
         <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0.5</v>
+        <v>70</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>-0.1210250545396901</v>
+        <v>0.2092665706916757</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.2333290178328673</v>
+        <v>6.902019771882005e-05</v>
       </c>
     </row>
     <row r="97">
@@ -3090,22 +3198,22 @@
         <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.5</v>
+        <v>70</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>-0.1210250545396901</v>
+        <v>0.2092665706916757</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.2333290178328673</v>
+        <v>6.902019771882005e-05</v>
       </c>
     </row>
     <row r="98">
@@ -3118,22 +3226,22 @@
         <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0.5</v>
+        <v>70</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.1210250545396901</v>
+        <v>0.2092665706916757</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.2333290178328673</v>
+        <v>6.902019771882005e-05</v>
       </c>
     </row>
     <row r="99">
@@ -3143,25 +3251,25 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.5</v>
+        <v>90</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>-0.1802844696824023</v>
+        <v>0.1532096000476313</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.1617217089160844</v>
+        <v>0.007037736959002586</v>
       </c>
     </row>
     <row r="100">
@@ -3171,25 +3279,25 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.5</v>
+        <v>90</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-0.1802844696824023</v>
+        <v>0.1532096000476313</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.1617217089160844</v>
+        <v>0.007037736959002586</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="A1:XFD1048576"/>
@@ -383,27 +383,25 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>0.2253984688000961</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -416,24 +414,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>0.2253984688000961</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -443,10 +439,10 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>650</v>
@@ -460,10 +456,10 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +475,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
@@ -490,10 +486,10 @@
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +499,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -520,10 +516,10 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +529,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -550,10 +546,10 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +559,16 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -580,10 +576,10 @@
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -593,13 +589,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1300</v>
@@ -610,10 +606,10 @@
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -623,16 +619,16 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
@@ -640,10 +636,10 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +649,13 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1300</v>
@@ -670,10 +666,10 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -683,13 +679,13 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1300</v>
@@ -700,10 +696,10 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -713,16 +709,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
@@ -730,10 +726,10 @@
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -743,16 +739,16 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
@@ -760,10 +756,10 @@
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -779,10 +775,10 @@
         <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
@@ -790,10 +786,10 @@
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +799,16 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -820,10 +816,10 @@
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -833,16 +829,16 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
@@ -850,10 +846,10 @@
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -863,16 +859,16 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
@@ -880,10 +876,10 @@
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -893,16 +889,16 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
@@ -910,10 +906,10 @@
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -923,16 +919,16 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D19" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -940,10 +936,10 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -953,13 +949,13 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1300</v>
@@ -970,10 +966,10 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-1.534153713206097</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -983,13 +979,13 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>900</v>
@@ -1000,10 +996,10 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="22">
@@ -1019,10 +1015,10 @@
         <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -1030,10 +1026,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="23">
@@ -1043,13 +1039,13 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D23" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1100</v>
@@ -1060,10 +1056,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="24">
@@ -1073,27 +1069,25 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D24" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="25">
@@ -1103,16 +1097,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1120,10 +1114,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="26">
@@ -1133,16 +1127,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1150,10 +1144,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="27">
@@ -1163,16 +1157,16 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1180,10 +1174,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="28">
@@ -1193,16 +1187,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1210,10 +1204,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="29">
@@ -1226,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1240,10 +1234,10 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="30">
@@ -1256,13 +1250,13 @@
         <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1270,10 +1264,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="31">
@@ -1283,16 +1277,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1300,10 +1294,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="32">
@@ -1313,16 +1307,16 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1330,10 +1324,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="33">
@@ -1346,10 +1340,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>800</v>
@@ -1360,10 +1354,10 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="34">
@@ -1373,13 +1367,13 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1000</v>
@@ -1390,10 +1384,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="35">
@@ -1403,13 +1397,13 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1000</v>
@@ -1420,10 +1414,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="36">
@@ -1433,16 +1427,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1450,10 +1444,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="37">
@@ -1463,16 +1457,16 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -1480,10 +1474,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="38">
@@ -1493,13 +1487,13 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1000</v>
@@ -1510,10 +1504,10 @@
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="39">
@@ -1523,16 +1517,16 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1540,10 +1534,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="40">
@@ -1553,16 +1547,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1570,10 +1564,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="41">
@@ -1583,16 +1577,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1600,10 +1594,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="42">
@@ -1613,16 +1607,16 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
@@ -1630,10 +1624,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="43">
@@ -1643,16 +1637,16 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1660,10 +1654,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="44">
@@ -1673,16 +1667,16 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
@@ -1690,10 +1684,10 @@
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="45">
@@ -1703,27 +1697,25 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="46">
@@ -1733,16 +1725,16 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
@@ -1750,10 +1742,10 @@
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="47">
@@ -1763,16 +1755,16 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
@@ -1780,10 +1772,10 @@
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="48">
@@ -1796,10 +1788,10 @@
         <v>60</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>700</v>
@@ -1810,10 +1802,10 @@
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="49">
@@ -1826,10 +1818,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1300</v>
@@ -1840,10 +1832,10 @@
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="50">
@@ -1856,13 +1848,13 @@
         <v>60</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
@@ -1870,10 +1862,10 @@
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="51">
@@ -1883,16 +1875,16 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
@@ -1900,10 +1892,10 @@
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="52">
@@ -1913,16 +1905,16 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
@@ -1930,10 +1922,10 @@
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="53">
@@ -1943,16 +1935,16 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
@@ -1960,10 +1952,10 @@
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="54">
@@ -1973,16 +1965,16 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
@@ -1990,10 +1982,10 @@
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="55">
@@ -2003,16 +1995,16 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -2020,10 +2012,10 @@
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="56">
@@ -2033,16 +2025,16 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -2050,10 +2042,10 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="57">
@@ -2063,16 +2055,16 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
@@ -2080,10 +2072,10 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="58">
@@ -2093,16 +2085,16 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
@@ -2110,10 +2102,10 @@
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="59">
@@ -2123,16 +2115,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -2140,10 +2132,10 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="60">
@@ -2156,13 +2148,13 @@
         <v>60</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
@@ -2170,10 +2162,10 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="61">
@@ -2183,16 +2175,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D61" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2200,10 +2192,10 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="62">
@@ -2213,13 +2205,13 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>700</v>
@@ -2230,10 +2222,10 @@
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="63">
@@ -2243,25 +2235,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>5</v>
+        <v>900</v>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="64">
@@ -2271,25 +2265,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>5</v>
+        <v>1500</v>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="65">
@@ -2299,25 +2295,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="66">
@@ -2327,25 +2325,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="67">
@@ -2355,25 +2355,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="68">
@@ -2383,25 +2385,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.9867203698685105</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.211957168283222</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="69">
@@ -2411,25 +2415,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D69" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>5</v>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.8952093045474215</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.4574141460820981</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="70">
@@ -2439,25 +2445,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>5</v>
+        <v>1500</v>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.8952093045474215</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.4574141460820981</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="71">
@@ -2470,22 +2478,24 @@
         <v>50</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F71" s="0" t="n">
-        <v>10</v>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.8727780928448713</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.4882588387589283</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="72">
@@ -2495,25 +2505,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>20</v>
+        <v>1500</v>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.8571092366200752</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.5104017415515943</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="73">
@@ -2523,25 +2535,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D73" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>20</v>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.8571092366200752</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.5104017415515943</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="74">
@@ -2554,22 +2568,24 @@
         <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.7966204540635403</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.6004899179462169</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="75">
@@ -2579,25 +2595,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>5</v>
+        <v>1500</v>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.7966204540635403</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.6004899179462169</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="76">
@@ -2607,25 +2625,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.7966204540635403</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.6004899179462169</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="77">
@@ -2635,25 +2655,25 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.7778878407934449</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.6298731140474824</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="78">
@@ -2663,25 +2683,27 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>100</v>
+        <v>1100</v>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.7778878407934449</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.6298731140474824</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="79">
@@ -2691,25 +2713,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>100</v>
+        <v>700</v>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.7778878407934449</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.6298731140474824</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="80">
@@ -2722,22 +2746,24 @@
         <v>50</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>100</v>
+        <v>750</v>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.7778878407934449</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.6298731140474824</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="81">
@@ -2747,25 +2773,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>25</v>
+        <v>1300</v>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.4869107348663609</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.009587345632608253</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="82">
@@ -2775,25 +2803,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>25</v>
+        <v>800</v>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.2477371767627378</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.01194251126184413</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="83">
@@ -2803,25 +2833,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>25</v>
+        <v>650</v>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.2477371767627378</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.01194251126184413</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="84">
@@ -2831,25 +2863,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>90</v>
+        <v>1000</v>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="85">
@@ -2859,25 +2893,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F85" s="0" t="n">
-        <v>90</v>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="86">
@@ -2887,25 +2923,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>90</v>
+        <v>1500</v>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="87">
@@ -2915,25 +2953,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F87" s="0" t="n">
-        <v>90</v>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="88">
@@ -2943,25 +2983,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>90</v>
+        <v>900</v>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="89">
@@ -2971,25 +3013,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>90</v>
+        <v>1000</v>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.2213000639069323</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.007822552253018238</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="90">
@@ -2999,25 +3043,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>40</v>
+        <v>1000</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.2184225712935411</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.0002829085932990858</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="91">
@@ -3027,25 +3073,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>40</v>
+        <v>1100</v>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.2184225712935411</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.0002829085932990858</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="92">
@@ -3055,25 +3103,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>40</v>
+        <v>1500</v>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.2184225712935411</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.0002829085932990858</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="93">
@@ -3083,25 +3133,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>40</v>
+        <v>1500</v>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.2184225712935411</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.0002829085932990858</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="94">
@@ -3111,25 +3163,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F94" s="0" t="n">
-        <v>70</v>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.2092665706916757</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>6.902019771882005e-05</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="95">
@@ -3139,25 +3193,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>70</v>
+        <v>1500</v>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.2092665706916757</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>6.902019771882005e-05</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="96">
@@ -3167,25 +3223,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>70</v>
+        <v>800</v>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.2092665706916757</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>6.902019771882005e-05</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="97">
@@ -3195,25 +3253,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>70</v>
+        <v>1000</v>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.2092665706916757</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>6.902019771882005e-05</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="98">
@@ -3223,25 +3283,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>70</v>
+        <v>1500</v>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.2092665706916757</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>6.902019771882005e-05</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="99">
@@ -3254,22 +3316,24 @@
         <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>90</v>
+        <v>900</v>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.1532096000476313</v>
+        <v>1.287225955174597</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.007037736959002586</v>
+        <v>0.0002027350248913096</v>
       </c>
     </row>
     <row r="100">
@@ -3279,25 +3343,2957 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>rule101</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D100" s="0" t="n">
+      <c r="C101" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>rule102</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>rule103</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D103" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E103" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>rule104</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>rule105</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>rule106</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>rule107</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E107" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>rule108</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>rule109</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C109" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G100" s="0" t="n">
-        <v>0.1532096000476313</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0.007037736959002586</v>
+      <c r="D109" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rule110</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rule111</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>rule112</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>rule113</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>rule114</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>rule115</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>rule116</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>rule117</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>rule118</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>rule119</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>rule120</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>rule121</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>rule122</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>rule123</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>rule124</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>rule125</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>rule126</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>rule127</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>rule128</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>rule129</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F129" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>rule130</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>rule131</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F131" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>rule132</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>rule133</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>rule134</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>rule135</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F135" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>rule136</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F136" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>rule137</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>rule138</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F138" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>rule139</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F139" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>rule140</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F140" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>rule141</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>rule142</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>rule143</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F143" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>rule144</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F144" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>rule145</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>rule146</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>rule147</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>rule148</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>rule149</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>rule150</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>rule151</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>rule152</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>rule153</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>rule154</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>rule155</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F155" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>rule156</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F156" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>rule157</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>rule158</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>rule159</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>rule160</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>rule161</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>rule162</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>rule163</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>rule164</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>rule165</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>rule166</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>rule167</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>rule168</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>rule169</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>1.287225955174597</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0.0002027350248913096</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>rule170</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>1.004296169297576</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0.09566676236997683</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>rule171</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>0.835043603200007</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0.3452851611444839</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>rule172</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>0.835043603200007</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>0.3452851611444839</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>rule173</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0.835043603200007</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0.3452851611444839</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>rule174</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>0.835043603200007</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0.3452851611444839</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>rule175</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>0.835043603200007</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0.3452851611444839</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>rule176</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>0.7905688726946583</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0.005362552355232825</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>rule177</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>0.7877153367605398</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>0.021071834981528</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>rule178</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>0.6241542993089648</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0.1598822142134873</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>rule179</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>rule180</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>rule181</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>rule182</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>rule183</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>rule184</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0.5920487702233003</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0.1352380116208592</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>rule185</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>0.4855690555783755</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0.07519453436791287</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>rule186</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>0.3840892720672056</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0.03212248193400671</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>rule187</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0.314657512611695</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0.004519013846567154</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>rule188</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0.2338344960696887</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0.0005054249811202784</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>rule189</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0.2258014006303276</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0.0004384663126406688</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>rule190</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0.2248908349409273</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0.000384033910095438</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>rule191</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>0.2101975591996167</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0.0001227025737223462</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>rule192</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>0.2094432028378003</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>6.902019771881982e-05</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>rule193</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>0.2094432028378003</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>6.902019771881982e-05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>rule194</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>0.2079344901141676</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>7.668910857646773e-06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>rule195</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>0.2079344901141676</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>7.668910857646773e-06</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>rule196</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>0.2079344901141676</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>7.668910857646773e-06</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>rule197</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>0.2079344901141676</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>7.668910857646773e-06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>rule198</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>0.2079344901141676</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>7.668910857646773e-06</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>rule199</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>0.2071801337523512</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>rule200</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>0.2071801337523512</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -383,22 +383,24 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>40</v>
+        <v>1300</v>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.2253984688000961</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>0</v>
@@ -411,22 +413,24 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>40</v>
+        <v>1500</v>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.2253984688000961</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -439,16 +443,16 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -456,7 +460,7 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -469,10 +473,10 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>650</v>
@@ -486,7 +490,7 @@
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -499,16 +503,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -516,7 +520,7 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -529,13 +533,13 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1300</v>
@@ -546,7 +550,7 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -559,13 +563,13 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1300</v>
@@ -576,7 +580,7 @@
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -589,16 +593,16 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
@@ -606,7 +610,7 @@
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -619,13 +623,13 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1300</v>
@@ -636,7 +640,7 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -649,16 +653,16 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -666,7 +670,7 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -679,16 +683,16 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -696,7 +700,7 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -709,16 +713,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
@@ -726,7 +730,7 @@
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -739,13 +743,13 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1300</v>
@@ -756,7 +760,7 @@
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -769,13 +773,13 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1300</v>
@@ -786,7 +790,7 @@
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -799,13 +803,13 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1300</v>
@@ -816,7 +820,7 @@
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -829,16 +833,16 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
@@ -846,7 +850,7 @@
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -859,16 +863,16 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
@@ -876,7 +880,7 @@
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -889,16 +893,16 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
@@ -906,7 +910,7 @@
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -919,16 +923,16 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -936,7 +940,7 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -949,16 +953,16 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
@@ -966,7 +970,7 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-1.534153713206097</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -979,16 +983,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
@@ -996,10 +1000,10 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1009,16 +1013,16 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -1026,10 +1030,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1039,16 +1043,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -1056,10 +1060,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1069,25 +1073,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1097,16 +1103,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1114,10 +1120,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1127,16 +1133,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1144,10 +1150,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1163,10 +1169,10 @@
         <v>110</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1174,10 +1180,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1187,16 +1193,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1204,10 +1210,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1217,16 +1223,16 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1234,10 +1240,10 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1247,16 +1253,16 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1264,10 +1270,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1277,16 +1283,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1294,10 +1300,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1310,13 +1316,13 @@
         <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1324,10 +1330,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1340,13 +1346,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
@@ -1354,10 +1360,10 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1367,16 +1373,16 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
@@ -1384,10 +1390,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1397,7 +1403,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>150</v>
@@ -1406,7 +1412,7 @@
         <v>650</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -1414,10 +1420,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1427,16 +1433,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1444,10 +1450,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1457,13 +1463,13 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1300</v>
@@ -1474,10 +1480,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.4269963776408558</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1487,27 +1493,25 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1517,27 +1521,25 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1547,27 +1549,25 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1577,27 +1577,25 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G41" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1607,27 +1605,25 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1637,27 +1633,25 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F43" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1667,27 +1661,25 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1697,25 +1689,25 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1725,27 +1717,25 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F46" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1755,27 +1745,25 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1785,10 +1773,10 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>300</v>
@@ -1796,16 +1784,14 @@
       <c r="E48" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F48" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1815,27 +1801,25 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1845,27 +1829,25 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.287225955174597</v>
+        <v>0.1614021397004542</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.0002027350248913096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="A1:XFD1048576"/>
@@ -383,24 +383,30 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>160</v>
       </c>
       <c r="H1" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>0.7767023538878189</v>
+      </c>
+      <c r="J1" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -411,24 +417,30 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>160</v>
       </c>
       <c r="H2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.7767023538878189</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -439,24 +451,30 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>160</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.7767023538878189</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -467,24 +485,30 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>160</v>
       </c>
       <c r="H4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.7767023538878189</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -495,24 +519,30 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>160</v>
       </c>
       <c r="H5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.7767023538878189</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -523,24 +553,30 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>60.9597864320278</v>
+        <v>150</v>
       </c>
       <c r="H6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.7653700397298584</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,24 +587,30 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>57.57733623644954</v>
+        <v>150</v>
       </c>
       <c r="H7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.7653700397298584</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,24 +621,30 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>57.57733623644954</v>
+        <v>160</v>
       </c>
       <c r="H8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.7538865183008195</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -607,26 +655,30 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G9" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>160</v>
       </c>
       <c r="H9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.7538865183008195</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -640,23 +692,27 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
+        <v>0.7309194754427421</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -667,26 +723,30 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>150</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.7309194754427421</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,26 +757,30 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F12" s="0" t="n">
+        <v>150</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.7079524325846641</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -727,26 +791,30 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>150</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.7079524325846641</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,26 +825,30 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
+        <v>0.7079524325846641</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,23 +862,27 @@
         <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F15" s="0" t="n">
+        <v>150</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.7079524325846641</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -817,26 +893,32 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -847,24 +929,32 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -875,26 +965,32 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -908,21 +1004,29 @@
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -933,26 +1037,32 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,26 +1073,30 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,26 +1107,30 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1023,26 +1141,30 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1053,26 +1175,30 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1083,26 +1209,30 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,26 +1243,30 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F26" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,24 +1277,30 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1171,26 +1311,30 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1201,26 +1345,30 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,26 +1379,30 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1261,26 +1413,30 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F31" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1291,26 +1447,30 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,26 +1481,30 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G33" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1351,26 +1515,30 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,26 +1549,30 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.3707326113687203</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,26 +1583,30 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.3256944245840277</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1441,26 +1617,30 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.3256944245840277</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1471,26 +1651,30 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F38" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.2824993766939983</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1501,24 +1685,30 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.2748236175193417</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,26 +1719,30 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.1885988443426818</v>
+      </c>
+      <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,26 +1753,30 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.1885988443426818</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1589,26 +1787,30 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F42" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.1885988443426818</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1619,26 +1821,30 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.1885988443426818</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1649,26 +1855,30 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F44" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.1885988443426818</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1679,26 +1889,30 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1709,26 +1923,30 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H46" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1739,26 +1957,30 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G47" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>110</v>
       </c>
       <c r="H47" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,21 +1994,27 @@
         <v>40</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H48" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1797,26 +2025,30 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H49" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1827,26 +2059,30 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>110</v>
       </c>
       <c r="H50" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,26 +2093,30 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1887,26 +2127,30 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>140</v>
       </c>
       <c r="H52" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1917,26 +2161,30 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>200</v>
       </c>
       <c r="H53" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1947,26 +2195,30 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1977,26 +2229,30 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F55" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2007,26 +2263,30 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>140</v>
       </c>
       <c r="H56" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2037,26 +2297,30 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H57" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2067,26 +2331,30 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>110</v>
       </c>
       <c r="H58" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.1844710413706382</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,26 +2365,30 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.1781007232249189</v>
+      </c>
+      <c r="J59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,26 +2399,30 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H60" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2157,24 +2433,30 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E61" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,23 +2470,27 @@
         <v>0</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>160</v>
       </c>
       <c r="H62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2215,26 +2501,30 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>160</v>
       </c>
       <c r="H63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2245,26 +2535,30 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E64" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F64" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2275,26 +2569,30 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2305,26 +2603,30 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,26 +2637,30 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2365,26 +2671,30 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F68" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2395,26 +2705,30 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2425,26 +2739,30 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D70" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E70" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F70" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0.1779839749921965</v>
+      </c>
+      <c r="J70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2455,26 +2773,30 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>150</v>
       </c>
       <c r="H71" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0.1772273305413339</v>
+      </c>
+      <c r="J71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2485,26 +2807,30 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G72" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H72" s="0" t="n">
+      <c r="I72" s="0" t="n">
+        <v>0.1748163041748553</v>
+      </c>
+      <c r="J72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,26 +2841,30 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H73" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0.1748163041748553</v>
+      </c>
+      <c r="J73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2545,26 +2875,30 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
       <c r="G74" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H74" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0.1748163041748553</v>
+      </c>
+      <c r="J74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,26 +2909,30 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>120</v>
       </c>
       <c r="H75" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0.1748163041748553</v>
+      </c>
+      <c r="J75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2605,26 +2943,30 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
       <c r="H76" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0.1337897471874291</v>
+      </c>
+      <c r="J76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2635,26 +2977,30 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H77" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>-0.0803156664358225</v>
+      </c>
+      <c r="J77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,26 +3011,30 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D78" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E78" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E78" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F78" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>56.05784206469499</v>
+        <v>105</v>
       </c>
       <c r="H78" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>-0.0803156664358225</v>
+      </c>
+      <c r="J78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2695,26 +3045,32 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="F79" s="0" t="inlineStr">
+      <c r="F79" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H79" s="0" t="n">
+      <c r="I79" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,26 +3081,32 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G80" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H80" s="0" t="n">
+      <c r="I80" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2755,26 +3117,32 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H81" s="0" t="n">
+      <c r="I81" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2785,26 +3153,32 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G82" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H82" s="0" t="n">
+      <c r="I82" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2815,26 +3189,32 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
+        <v>800</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H83" s="0" t="n">
+      <c r="I83" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2848,23 +3228,29 @@
         <v>60</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F84" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H84" s="0" t="n">
+      <c r="I84" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2875,26 +3261,32 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D85" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E85" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E85" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
+      <c r="F85" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H85" s="0" t="n">
+      <c r="I85" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2905,24 +3297,32 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H86" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,26 +3333,32 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G87" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H87" s="0" t="n">
+      <c r="I87" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,26 +3369,32 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G88" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C88" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G88" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H88" s="0" t="n">
+      <c r="I88" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,24 +3405,32 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H89" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3021,26 +3441,32 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C90" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
+      <c r="H90" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G90" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H90" s="0" t="n">
+      <c r="I90" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3051,24 +3477,32 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C91" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3079,26 +3513,32 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F92" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G92" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H92" s="0" t="n">
+      <c r="I92" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3109,26 +3549,32 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F93" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C93" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E93" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F93" s="0" t="inlineStr">
+      <c r="G93" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G93" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H93" s="0" t="n">
+      <c r="I93" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3139,26 +3585,32 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F94" s="0" t="inlineStr">
+      <c r="F94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H94" s="0" t="n">
+      <c r="I94" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3169,26 +3621,32 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F95" s="0" t="inlineStr">
+        <v>550</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G95" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H95" s="0" t="n">
+      <c r="I95" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3199,24 +3657,32 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H96" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3227,26 +3693,32 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C97" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F97" s="0" t="inlineStr">
+      <c r="H97" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G97" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H97" s="0" t="n">
+      <c r="I97" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3260,23 +3732,29 @@
         <v>80</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D98" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G98" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E98" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F98" s="0" t="inlineStr">
+      <c r="H98" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G98" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H98" s="0" t="n">
+      <c r="I98" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3287,26 +3765,32 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F99" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G99" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H99" s="0" t="n">
+      <c r="I99" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3317,26 +3801,32 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F100" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G100" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H100" s="0" t="n">
+      <c r="I100" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3347,26 +3837,32 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F101" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G101" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H101" s="0" t="n">
+      <c r="I101" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3377,26 +3873,32 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F102" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G102" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H102" s="0" t="n">
+      <c r="I102" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3407,26 +3909,32 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F103" s="0" t="inlineStr">
+      <c r="F103" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G103" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H103" s="0" t="n">
+      <c r="I103" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3440,23 +3948,29 @@
         <v>80</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F104" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G104" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H104" s="0" t="n">
+      <c r="I104" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3470,21 +3984,29 @@
         <v>0</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H105" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3495,26 +4017,32 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F106" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G106" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H106" s="0" t="n">
+      <c r="I106" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3525,26 +4053,32 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F107" s="0" t="inlineStr">
+        <v>800</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G107" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H107" s="0" t="n">
+      <c r="I107" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3555,26 +4089,32 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F108" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G108" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H108" s="0" t="n">
+      <c r="I108" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3585,26 +4125,32 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C109" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F109" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E109" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F109" s="0" t="inlineStr">
+      <c r="G109" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H109" s="0" t="n">
+      <c r="I109" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3615,26 +4161,32 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F110" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G110" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H110" s="0" t="n">
+      <c r="I110" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3645,26 +4197,32 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F111" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G111" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H111" s="0" t="n">
+      <c r="I111" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J111" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3675,24 +4233,32 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J112" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3703,26 +4269,32 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F113" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G113" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H113" s="0" t="n">
+      <c r="I113" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3733,26 +4305,32 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F114" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F114" s="0" t="inlineStr">
+      <c r="G114" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G114" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H114" s="0" t="n">
+      <c r="I114" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3763,26 +4341,32 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F115" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G115" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H115" s="0" t="n">
+      <c r="I115" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3793,26 +4377,32 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F116" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G116" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H116" s="0" t="n">
+      <c r="I116" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3823,26 +4413,32 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F117" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G117" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H117" s="0" t="n">
+      <c r="I117" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3853,24 +4449,32 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D118" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E118" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E118" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F118" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3881,26 +4485,32 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F119" s="0" t="inlineStr">
+        <v>800</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G119" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H119" s="0" t="n">
+      <c r="I119" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J119" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3911,26 +4521,32 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F120" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G120" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H120" s="0" t="n">
+      <c r="I120" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3941,26 +4557,32 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F121" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H121" s="0" t="n">
+      <c r="I121" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3971,24 +4593,32 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C122" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G122" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J122" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,26 +4629,32 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F123" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G123" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H123" s="0" t="n">
+      <c r="I123" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J123" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4029,26 +4665,32 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F124" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G124" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H124" s="0" t="n">
+      <c r="I124" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J124" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4059,26 +4701,32 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F125" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G125" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H125" s="0" t="n">
+      <c r="I125" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4092,23 +4740,29 @@
         <v>80</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F126" s="0" t="inlineStr">
+        <v>600</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G126" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H126" s="0" t="n">
+      <c r="I126" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4122,23 +4776,29 @@
         <v>80</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F127" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G127" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H127" s="0" t="n">
+      <c r="I127" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J127" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4149,26 +4809,32 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F128" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G128" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H128" s="0" t="n">
+      <c r="I128" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4179,26 +4845,32 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F129" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G129" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H129" s="0" t="n">
+      <c r="I129" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4212,23 +4884,29 @@
         <v>80</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F130" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G130" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H130" s="0" t="n">
+      <c r="I130" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4239,26 +4917,32 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F131" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G131" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H131" s="0" t="n">
+      <c r="I131" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4269,26 +4953,32 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F132" s="0" t="inlineStr">
+        <v>600</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H132" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G132" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H132" s="0" t="n">
+      <c r="I132" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4299,24 +4989,32 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H133" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H133" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4327,26 +5025,32 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F134" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H134" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G134" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H134" s="0" t="n">
+      <c r="I134" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4357,26 +5061,32 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F135" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H135" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G135" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H135" s="0" t="n">
+      <c r="I135" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4387,26 +5097,32 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F136" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H136" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G136" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H136" s="0" t="n">
+      <c r="I136" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4417,26 +5133,32 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F137" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H137" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G137" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H137" s="0" t="n">
+      <c r="I137" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4447,26 +5169,32 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F138" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H138" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G138" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H138" s="0" t="n">
+      <c r="I138" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J138" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4477,26 +5205,32 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D139" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E139" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E139" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F139" s="0" t="inlineStr">
+      <c r="F139" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H139" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G139" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H139" s="0" t="n">
+      <c r="I139" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J139" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4507,26 +5241,32 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F140" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H140" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G140" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H140" s="0" t="n">
+      <c r="I140" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4537,26 +5277,32 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F141" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H141" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G141" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H141" s="0" t="n">
+      <c r="I141" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4567,26 +5313,32 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F142" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H142" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G142" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H142" s="0" t="n">
+      <c r="I142" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,26 +5349,32 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F143" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G143" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H143" s="0" t="n">
+      <c r="I143" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4630,23 +5388,29 @@
         <v>80</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F144" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H144" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G144" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H144" s="0" t="n">
+      <c r="I144" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4657,26 +5421,32 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F145" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H145" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G145" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H145" s="0" t="n">
+      <c r="I145" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4687,24 +5457,32 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H146" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H146" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J146" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4715,26 +5493,32 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F147" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H147" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G147" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H147" s="0" t="n">
+      <c r="I147" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J147" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4748,23 +5532,29 @@
         <v>80</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F148" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H148" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G148" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H148" s="0" t="n">
+      <c r="I148" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J148" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4781,20 +5571,26 @@
         <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F149" s="0" t="inlineStr">
+        <v>1100</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G149" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H149" s="0" t="n">
+      <c r="I149" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J149" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,26 +5601,32 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F150" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C150" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F150" s="0" t="inlineStr">
+      <c r="G150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G150" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H150" s="0" t="n">
+      <c r="I150" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4835,24 +5637,32 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H151" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4863,26 +5673,32 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F152" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H152" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G152" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H152" s="0" t="n">
+      <c r="I152" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J152" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4893,26 +5709,32 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F153" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H153" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G153" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H153" s="0" t="n">
+      <c r="I153" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J153" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4923,26 +5745,32 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D154" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E154" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E154" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F154" s="0" t="inlineStr">
+      <c r="F154" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G154" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H154" s="0" t="n">
+      <c r="I154" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J154" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4953,26 +5781,32 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F155" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H155" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G155" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H155" s="0" t="n">
+      <c r="I155" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J155" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4983,26 +5817,32 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F156" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H156" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G156" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H156" s="0" t="n">
+      <c r="I156" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5013,26 +5853,32 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F157" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G157" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H157" s="0" t="n">
+      <c r="I157" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5043,26 +5889,32 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D158" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E158" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E158" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F158" s="0" t="inlineStr">
+      <c r="F158" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H158" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G158" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H158" s="0" t="n">
+      <c r="I158" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J158" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5073,10 +5925,10 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>0</v>
@@ -5084,15 +5936,21 @@
       <c r="E159" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F159" s="0" t="inlineStr">
+      <c r="F159" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G159" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H159" s="0" t="n">
+      <c r="I159" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J159" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5103,26 +5961,32 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F160" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C160" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F160" s="0" t="inlineStr">
+      <c r="G160" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G160" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H160" s="0" t="n">
+      <c r="I160" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J160" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5133,26 +5997,32 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F161" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H161" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G161" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H161" s="0" t="n">
+      <c r="I161" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J161" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5163,26 +6033,32 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F162" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H162" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G162" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H162" s="0" t="n">
+      <c r="I162" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J162" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5193,26 +6069,32 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F163" s="0" t="inlineStr">
+        <v>1300</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G163" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H163" s="0" t="n">
+      <c r="I163" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J163" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5223,26 +6105,32 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C164" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C164" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D164" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F164" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G164" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H164" s="0" t="n">
+      <c r="I164" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J164" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5253,26 +6141,32 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F165" s="0" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G165" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H165" s="0" t="n">
+      <c r="I165" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J165" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5283,26 +6177,32 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G166" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C166" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F166" s="0" t="inlineStr">
+      <c r="H166" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G166" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H166" s="0" t="n">
+      <c r="I166" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5313,26 +6213,32 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C167" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C167" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="D167" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F167" s="0" t="inlineStr">
+      <c r="F167" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G167" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H167" s="0" t="n">
+      <c r="I167" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5343,26 +6249,32 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F168" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H168" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G168" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H168" s="0" t="n">
+      <c r="I168" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5373,26 +6285,32 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C169" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G169" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D169" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E169" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F169" s="0" t="inlineStr">
+      <c r="H169" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G169" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H169" s="0" t="n">
+      <c r="I169" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J169" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,26 +6321,32 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F170" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G170" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H170" s="0" t="n">
+      <c r="I170" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J170" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5433,26 +6357,32 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F171" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G171" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H171" s="0" t="n">
+      <c r="I171" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J171" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5463,26 +6393,32 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F172" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G172" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H172" s="0" t="n">
+      <c r="I172" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J172" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5493,26 +6429,32 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F173" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H173" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G173" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H173" s="0" t="n">
+      <c r="I173" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J173" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5523,26 +6465,32 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C174" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G174" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D174" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E174" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F174" s="0" t="inlineStr">
+      <c r="H174" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G174" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H174" s="0" t="n">
+      <c r="I174" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J174" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5553,26 +6501,32 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F175" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H175" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G175" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H175" s="0" t="n">
+      <c r="I175" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J175" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5583,26 +6537,32 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F176" s="0" t="inlineStr">
+        <v>700</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G176" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H176" s="0" t="n">
+      <c r="I176" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J176" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5613,24 +6573,32 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H177" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J177" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5641,26 +6609,32 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G178" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F178" s="0" t="inlineStr">
+      <c r="H178" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G178" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H178" s="0" t="n">
+      <c r="I178" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J178" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5671,26 +6645,32 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F179" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G179" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H179" s="0" t="n">
+      <c r="I179" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J179" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5701,26 +6681,32 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D180" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E180" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E180" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F180" s="0" t="inlineStr">
+      <c r="F180" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G180" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H180" s="0" t="n">
+      <c r="I180" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J180" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5731,26 +6717,32 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F181" s="0" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H181" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G181" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H181" s="0" t="n">
+      <c r="I181" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J181" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5761,26 +6753,32 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F182" s="0" t="inlineStr">
+        <v>1500</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H182" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G182" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H182" s="0" t="n">
+      <c r="I182" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J182" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5797,20 +6795,26 @@
         <v>150</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F183" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G183" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H183" s="0" t="n">
+      <c r="I183" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J183" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5821,26 +6825,32 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F184" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H184" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G184" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H184" s="0" t="n">
+      <c r="I184" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J184" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5851,26 +6861,32 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F185" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H185" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G185" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H185" s="0" t="n">
+      <c r="I185" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5881,26 +6897,32 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F186" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H186" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G186" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H186" s="0" t="n">
+      <c r="I186" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J186" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5911,26 +6933,32 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F187" s="0" t="inlineStr">
+        <v>400</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H187" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G187" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H187" s="0" t="n">
+      <c r="I187" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J187" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5941,26 +6969,32 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F188" s="0" t="inlineStr">
+        <v>1000</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H188" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G188" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H188" s="0" t="n">
+      <c r="I188" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J188" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5971,26 +7005,32 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F189" s="0" t="inlineStr">
+        <v>900</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
-      <c r="G189" s="0" t="n">
-        <v>56.05784206469499</v>
-      </c>
-      <c r="H189" s="0" t="n">
+      <c r="I189" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J189" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6001,24 +7041,32 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H190" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J190" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6029,24 +7077,32 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H191" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J191" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6057,24 +7113,32 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H192" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H192" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J192" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6085,24 +7149,32 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H193" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J193" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6113,24 +7185,32 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C194" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F194" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D194" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E194" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F194" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="G194" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H194" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J194" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6141,24 +7221,32 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H195" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J195" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6169,24 +7257,32 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>55.30364171692373</v>
-      </c>
-      <c r="H196" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J196" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6197,24 +7293,32 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>54.54944136915248</v>
-      </c>
-      <c r="H197" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J197" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6225,24 +7329,32 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>54.54944136915248</v>
-      </c>
-      <c r="H198" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J198" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6253,24 +7365,32 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>51.22314458372912</v>
-      </c>
-      <c r="H199" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J199" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6281,24 +7401,32 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>50.332105156837</v>
-      </c>
-      <c r="H200" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>-0.08188803789002995</v>
+      </c>
+      <c r="J200" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -383,28 +383,28 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F1" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.7767023538878189</v>
+        <v>0.2633997766844854</v>
       </c>
       <c r="J1" s="0" t="n">
         <v>0</v>
@@ -417,28 +417,28 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F2" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.7767023538878189</v>
+        <v>0.2633997766844854</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -451,28 +451,28 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>700</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.7767023538878189</v>
+        <v>0.2633997766844854</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F4" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.7767023538878189</v>
+        <v>0.2633997766844854</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -519,28 +519,28 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>700</v>
-      </c>
       <c r="F5" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.7767023538878189</v>
+        <v>0.2633997766844854</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -553,28 +553,30 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F6" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.7653700397298584</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -587,28 +589,30 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F7" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.7653700397298584</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -621,28 +625,30 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.7538865183008195</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -655,28 +661,30 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.7538865183008195</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -689,28 +697,30 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F10" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.7309194754427421</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -723,28 +733,30 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.7309194754427421</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -757,28 +769,30 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.7079524325846641</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -791,28 +805,30 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F13" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.7079524325846641</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -825,28 +841,30 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F14" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.7079524325846641</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -859,28 +877,30 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F15" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.7079524325846641</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -893,22 +913,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -916,7 +936,7 @@
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -929,22 +949,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>700</v>
-      </c>
       <c r="F17" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -952,7 +972,7 @@
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -965,22 +985,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F18" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -988,7 +1008,7 @@
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -1001,22 +1021,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F19" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -1024,7 +1044,7 @@
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -1037,22 +1057,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
@@ -1060,7 +1080,7 @@
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -383,33 +383,33 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F1" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G1" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3204544237914111</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0</v>
+        <v>0.01941998882989721</v>
       </c>
     </row>
     <row r="2">
@@ -419,33 +419,33 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3204544237914111</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>0.01941998882989721</v>
       </c>
     </row>
     <row r="3">
@@ -455,33 +455,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="4">
@@ -491,33 +491,33 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="5">
@@ -527,33 +527,33 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="6">
@@ -563,33 +563,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.07756146449907203</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="7">
@@ -599,33 +599,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="8">
@@ -635,33 +635,33 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="9">
@@ -674,30 +674,30 @@
         <v>60</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="10">
@@ -710,30 +710,30 @@
         <v>60</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="11">
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="12">
@@ -782,30 +782,30 @@
         <v>60</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="13">
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="14">
@@ -854,30 +854,30 @@
         <v>60</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="15">
@@ -887,33 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3181411348090248</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>0.01949011034023529</v>
       </c>
     </row>
     <row r="16">
@@ -923,33 +923,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.3038953799060413</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0</v>
+        <v>0.01900299955649834</v>
       </c>
     </row>
     <row r="17">
@@ -959,33 +959,33 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2913480511707084</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0</v>
+        <v>0.02616600606059722</v>
       </c>
     </row>
     <row r="18">
@@ -995,33 +995,33 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2885228208789394</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>0.017360891699831</v>
       </c>
     </row>
     <row r="19">
@@ -1031,33 +1031,33 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2885228208789394</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0</v>
+        <v>0.017360891699831</v>
       </c>
     </row>
     <row r="20">
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="21">
@@ -1106,30 +1106,30 @@
         <v>60</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="22">
@@ -1142,30 +1142,30 @@
         <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="23">
@@ -1175,33 +1175,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G23" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="24">
@@ -1211,33 +1211,33 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="25">
@@ -1247,33 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="G25" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2874918590222748</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>0.01709027399497428</v>
       </c>
     </row>
     <row r="26">
@@ -1283,33 +1283,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="27">
@@ -1319,33 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="28">
@@ -1355,33 +1355,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="29">
@@ -1394,30 +1394,30 @@
         <v>60</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="30">
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="31">
@@ -1463,33 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="32">
@@ -1502,30 +1502,30 @@
         <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="33">
@@ -1535,33 +1535,33 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2867705454529071</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0</v>
+        <v>0.01763773929827899</v>
       </c>
     </row>
     <row r="34">
@@ -1571,33 +1571,33 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2470113386759419</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0</v>
+        <v>0.009998429612980237</v>
       </c>
     </row>
     <row r="35">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G35" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I35" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2466551132558966</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0</v>
+        <v>0.009727657670405503</v>
       </c>
     </row>
     <row r="36">
@@ -1643,33 +1643,33 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F36" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G36" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I36" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2466551132558966</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0</v>
+        <v>0.009727657670405503</v>
       </c>
     </row>
     <row r="37">
@@ -1679,33 +1679,33 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I37" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="38">
@@ -1715,33 +1715,33 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I38" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="39">
@@ -1751,33 +1751,33 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I39" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="40">
@@ -1787,33 +1787,33 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I40" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="41">
@@ -1823,33 +1823,33 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I41" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="42">
@@ -1859,33 +1859,33 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I42" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.2461515963975854</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0</v>
+        <v>0.009827233815905376</v>
       </c>
     </row>
     <row r="43">
@@ -1895,33 +1895,33 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1850013701023207</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0</v>
+        <v>0.006890306021656628</v>
       </c>
     </row>
     <row r="44">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1850013701023207</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0</v>
+        <v>0.006890306021656628</v>
       </c>
     </row>
     <row r="45">
@@ -1967,33 +1967,33 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G45" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1707172992499822</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0</v>
+        <v>0.02050015088135129</v>
       </c>
     </row>
     <row r="46">
@@ -2003,33 +2003,33 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D46" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I46" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1195592491225005</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0</v>
+        <v>0.001075821145733432</v>
       </c>
     </row>
     <row r="47">
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I47" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1195592491225005</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0</v>
+        <v>0.001075821145733432</v>
       </c>
     </row>
     <row r="48">
@@ -2075,33 +2075,33 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D48" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I48" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.1195592491225005</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0</v>
+        <v>0.001075821145733432</v>
       </c>
     </row>
     <row r="49">
@@ -2111,33 +2111,33 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
       <c r="I49" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.08243735745583118</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0</v>
+        <v>0.0007600933360426019</v>
       </c>
     </row>
     <row r="50">
@@ -2147,33 +2147,33 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
       <c r="I50" s="0" t="n">
-        <v>-0.2486559791615969</v>
+        <v>0.08243735745583118</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0</v>
+        <v>0.0007600933360426019</v>
       </c>
     </row>
     <row r="51">
@@ -2183,31 +2183,33 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>sell 10 ships</t>
+        </is>
       </c>
       <c r="I51" s="0" t="n">
-        <v>-0.06272551091992508</v>
+        <v>-0.06397604419277692</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.0005029477746801888</v>
+        <v>4.843684143957145e-05</v>
       </c>
     </row>
     <row r="52">
@@ -2217,31 +2219,33 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>sell 70 ships</t>
+        </is>
       </c>
       <c r="I52" s="0" t="n">
-        <v>-0.06290426594238022</v>
+        <v>-0.08442976718711787</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.0003962507817838435</v>
+        <v>7.644114424754522e-05</v>
       </c>
     </row>
     <row r="53">
@@ -2254,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1300</v>
@@ -2266,16 +2270,18 @@
         <v>70</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I53" s="0" t="n">
-        <v>-0.0682770214178765</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.000535194739130279</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="54">
@@ -2285,31 +2291,33 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I54" s="0" t="n">
-        <v>-0.0682770214178765</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.000535194739130279</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="55">
@@ -2319,31 +2327,33 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I55" s="0" t="n">
-        <v>-0.06877803870576686</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.0004663348511805455</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="56">
@@ -2353,31 +2363,33 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I56" s="0" t="n">
-        <v>-0.06877803870576686</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.0004663348511805455</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="57">
@@ -2387,31 +2399,33 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-0.06898115321392184</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.0006408076172447999</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="58">
@@ -2421,31 +2435,33 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-0.06898115321392184</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.0006408076172447999</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="59">
@@ -2458,28 +2474,30 @@
         <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I59" s="0" t="n">
-        <v>-0.06906556169774257</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.0005554342234644088</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="60">
@@ -2489,31 +2507,33 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-0.0695704208008063</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.000245508443654629</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="61">
@@ -2523,31 +2543,33 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-0.0695704208008063</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.000245508443654629</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="62">
@@ -2557,31 +2579,33 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>sell 30 ships</t>
+        </is>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-0.0695704208008063</v>
+        <v>-0.08976615527610522</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.000245508443654629</v>
+        <v>0.0002981373797873592</v>
       </c>
     </row>
     <row r="63">
@@ -2591,31 +2615,33 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-0.06976851632456607</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.0002343702015025968</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="64">
@@ -2625,31 +2651,33 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I64" s="0" t="n">
-        <v>-0.06976851632456607</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.0002343702015025968</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="65">
@@ -2659,31 +2687,33 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I65" s="0" t="n">
-        <v>-0.06976851632456607</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.0002343702015025968</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="66">
@@ -2693,31 +2723,33 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I66" s="0" t="n">
-        <v>-0.06976851632456607</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.0002343702015025968</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="67">
@@ -2727,31 +2759,33 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I67" s="0" t="n">
-        <v>-0.07031219868448799</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.0004811326601273957</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="68">
@@ -2761,31 +2795,33 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I68" s="0" t="n">
-        <v>-0.07031219868448799</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.0004811326601273957</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="69">
@@ -2795,22 +2831,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
@@ -2818,10 +2854,10 @@
         </is>
       </c>
       <c r="I69" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="70">
@@ -2831,22 +2867,22 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
@@ -2854,10 +2890,10 @@
         </is>
       </c>
       <c r="I70" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="71">
@@ -2867,22 +2903,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
@@ -2890,10 +2926,10 @@
         </is>
       </c>
       <c r="I71" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="72">
@@ -2903,22 +2939,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
@@ -2926,10 +2962,10 @@
         </is>
       </c>
       <c r="I72" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="73">
@@ -2939,22 +2975,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F73" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G73" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -2962,10 +2998,10 @@
         </is>
       </c>
       <c r="I73" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="74">
@@ -2975,33 +3011,33 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C74" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G74" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I74" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="75">
@@ -3011,22 +3047,22 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
@@ -3034,10 +3070,10 @@
         </is>
       </c>
       <c r="I75" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3083,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H76" s="0" t="inlineStr">
         <is>
@@ -3070,10 +3106,10 @@
         </is>
       </c>
       <c r="I76" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="77">
@@ -3083,33 +3119,33 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G77" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I77" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="78">
@@ -3119,33 +3155,33 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F78" s="0" t="n">
+      <c r="G78" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="G78" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I78" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="79">
@@ -3155,22 +3191,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
@@ -3178,10 +3214,10 @@
         </is>
       </c>
       <c r="I79" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="80">
@@ -3191,22 +3227,22 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
@@ -3214,10 +3250,10 @@
         </is>
       </c>
       <c r="I80" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="81">
@@ -3227,22 +3263,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
@@ -3250,10 +3286,10 @@
         </is>
       </c>
       <c r="I81" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="82">
@@ -3263,22 +3299,22 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C82" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F82" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G82" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
@@ -3286,10 +3322,10 @@
         </is>
       </c>
       <c r="I82" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="83">
@@ -3299,31 +3335,33 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I83" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="84">
@@ -3333,13 +3371,13 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1500</v>
@@ -3348,7 +3386,7 @@
         <v>80</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
@@ -3356,10 +3394,10 @@
         </is>
       </c>
       <c r="I84" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="85">
@@ -3369,33 +3407,33 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C85" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G85" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I85" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="86">
@@ -3405,19 +3443,19 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>150</v>
@@ -3428,10 +3466,10 @@
         </is>
       </c>
       <c r="I86" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="87">
@@ -3441,22 +3479,22 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C87" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D87" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
@@ -3464,10 +3502,10 @@
         </is>
       </c>
       <c r="I87" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="88">
@@ -3477,22 +3515,22 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
@@ -3500,10 +3538,10 @@
         </is>
       </c>
       <c r="I88" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="89">
@@ -3516,19 +3554,19 @@
         <v>60</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
@@ -3536,10 +3574,10 @@
         </is>
       </c>
       <c r="I89" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="90">
@@ -3549,22 +3587,22 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
@@ -3572,10 +3610,10 @@
         </is>
       </c>
       <c r="I90" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="91">
@@ -3585,22 +3623,22 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
@@ -3608,10 +3646,10 @@
         </is>
       </c>
       <c r="I91" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="92">
@@ -3621,22 +3659,22 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F92" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G92" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H92" s="0" t="inlineStr">
         <is>
@@ -3644,10 +3682,10 @@
         </is>
       </c>
       <c r="I92" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="93">
@@ -3657,22 +3695,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
@@ -3680,10 +3718,10 @@
         </is>
       </c>
       <c r="I93" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="94">
@@ -3693,22 +3731,22 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
@@ -3716,10 +3754,10 @@
         </is>
       </c>
       <c r="I94" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="95">
@@ -3729,22 +3767,22 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
@@ -3752,10 +3790,10 @@
         </is>
       </c>
       <c r="I95" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="96">
@@ -3768,19 +3806,19 @@
         <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H96" s="0" t="inlineStr">
         <is>
@@ -3788,10 +3826,10 @@
         </is>
       </c>
       <c r="I96" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="97">
@@ -3801,19 +3839,19 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>130</v>
@@ -3824,10 +3862,10 @@
         </is>
       </c>
       <c r="I97" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="98">
@@ -3837,31 +3875,33 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
       <c r="I98" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="99">
@@ -3871,22 +3911,22 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G99" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
@@ -3894,10 +3934,10 @@
         </is>
       </c>
       <c r="I99" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="100">
@@ -3907,22 +3947,22 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H100" s="0" t="inlineStr">
         <is>
@@ -3930,10 +3970,10 @@
         </is>
       </c>
       <c r="I100" s="0" t="n">
-        <v>-0.07560613012344837</v>
+        <v>-0.1208794106022859</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.325116652034697</v>
+        <v>0.01632685147279231</v>
       </c>
     </row>
     <row r="101">

--- a/output/ship_rule_sell.xlsx
+++ b/output/ship_rule_sell.xlsx
@@ -383,19 +383,19 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>100</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>110</v>
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.3204544237914111</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0.01941998882989721</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="2">
@@ -419,19 +419,19 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>110</v>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.3204544237914111</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.01941998882989721</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>110</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="4">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>110</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="5">
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>110</v>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="6">
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>80</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>110</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1832205663083397</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.1233541378784981</v>
       </c>
     </row>
     <row r="7">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>110</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1716883017534236</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.14476962008543</v>
       </c>
     </row>
     <row r="8">
@@ -635,33 +635,33 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>110</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1459183184299258</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.1955158400604318</v>
       </c>
     </row>
     <row r="9">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 50 ships</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.1058661035664283</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.2008236326508047</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +707,19 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>110</v>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.09761964978068201</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.295967742135989</v>
       </c>
     </row>
     <row r="11">
@@ -743,19 +743,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>110</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.09761964978068201</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.295967742135989</v>
       </c>
     </row>
     <row r="12">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>110</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.09761964978068201</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.295967742135989</v>
       </c>
     </row>
     <row r="13">
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.08322611394010374</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.03055950913830359</v>
       </c>
     </row>
     <row r="14">
@@ -851,33 +851,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F14" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 15 ships</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.0565084220166772</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.2628641054993552</v>
       </c>
     </row>
     <row r="15">
@@ -887,33 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.3181411348090248</v>
+        <v>0.0298384422816131</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.01949011034023529</v>
+        <v>0.2592501166714363</v>
       </c>
     </row>
     <row r="16">
@@ -923,33 +923,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 2 ships</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.3038953799060413</v>
+        <v>0.0298384422816131</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.01900299955649834</v>
+        <v>0.2592501166714363</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.2913480511707084</v>
+        <v>0.0298384422816131</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.02616600606059722</v>
+        <v>0.2592501166714363</v>
       </c>
     </row>
     <row r="18">
@@ -995,22 +995,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.2885228208789394</v>
+        <v>0.02304380615793847</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.017360891699831</v>
+        <v>0.2275396945485229</v>
       </c>
     </row>
     <row r="19">
@@ -1031,33 +1031,33 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 25 ships</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.2885228208789394</v>
+        <v>0.02038680497625774</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.017360891699831</v>
+        <v>0.2876442342630922</v>
       </c>
     </row>
     <row r="20">
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 25 ships</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>0.02038680497625774</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.2876442342630922</v>
       </c>
     </row>
     <row r="21">
@@ -1103,33 +1103,33 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 25 ships</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>0.02038680497625774</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.2876442342630922</v>
       </c>
     </row>
     <row r="22">
@@ -1139,33 +1139,33 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 4 ships</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>0.008634999564874258</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.05654898099799054</v>
       </c>
     </row>
     <row r="23">
@@ -1175,33 +1175,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 4 ships</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>0.008634999564874258</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.05654898099799054</v>
       </c>
     </row>
     <row r="24">
@@ -1211,33 +1211,33 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>sell 4 ships</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>0.008634999564874258</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.05654898099799054</v>
       </c>
     </row>
     <row r="25">
@@ -1247,33 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.2874918590222748</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.01709027399497428</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="26">
@@ -1283,33 +1283,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="27">
@@ -1319,33 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="28">
@@ -1355,33 +1355,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>130</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="29">
@@ -1391,33 +1391,33 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="G29" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="30">
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="31">
@@ -1463,33 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>130</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="32">
@@ -1499,33 +1499,33 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="33">
@@ -1538,30 +1538,30 @@
         <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.2867705454529071</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.01763773929827899</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="34">
@@ -1571,33 +1571,33 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.2470113386759419</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.009998429612980237</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="35">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.2466551132558966</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.009727657670405503</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="36">
@@ -1643,33 +1643,33 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.2466551132558966</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.009727657670405503</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="37">
@@ -1679,33 +1679,33 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="38">
@@ -1715,33 +1715,33 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="39">
@@ -1751,33 +1751,33 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="40">
@@ -1787,33 +1787,33 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>200</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="41">
@@ -1823,33 +1823,33 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="42">
@@ -1862,30 +1862,30 @@
         <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.2461515963975854</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.009827233815905376</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="43">
@@ -1898,30 +1898,30 @@
         <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>sell 2 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.1850013701023207</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.006890306021656628</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="44">
@@ -1931,33 +1931,33 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>sell 2 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.1850013701023207</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.006890306021656628</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="45">
@@ -1967,33 +1967,33 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>sell 1 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.1707172992499822</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.02050015088135129</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="46">
@@ -2003,33 +2003,33 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="D46" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>sell 2 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.1195592491225005</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.001075821145733432</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="47">
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>sell 2 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.1195592491225005</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.001075821145733432</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="48">
@@ -2075,33 +2075,33 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>sell 2 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.1195592491225005</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.001075821145733432</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="49">
@@ -2111,33 +2111,33 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>sell 70 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.08243735745583118</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.0007600933360426019</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="50">
@@ -2147,33 +2147,33 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>sell 70 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.08243735745583118</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.0007600933360426019</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="51">
@@ -2183,33 +2183,33 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>sell 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I51" s="0" t="n">
-        <v>-0.06397604419277692</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>4.843684143957145e-05</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="52">
@@ -2219,33 +2219,33 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>sell 70 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I52" s="0" t="n">
-        <v>-0.08442976718711787</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>7.644114424754522e-05</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="53">
@@ -2255,33 +2255,33 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I53" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="54">
@@ -2291,33 +2291,33 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I54" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="55">
@@ -2327,33 +2327,33 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I55" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="56">
@@ -2366,30 +2366,30 @@
         <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I56" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="57">
@@ -2399,33 +2399,33 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="58">
@@ -2435,33 +2435,33 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="59">
@@ -2471,33 +2471,33 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D59" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E59" s="0" t="n">
         <v>700</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>1500</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I59" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="60">
@@ -2507,33 +2507,33 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="61">
@@ -2543,33 +2543,33 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="62">
@@ -2579,33 +2579,33 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-0.08976615527610522</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.0002981373797873592</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="63">
@@ -2615,22 +2615,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="64">
@@ -2651,22 +2651,22 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="I64" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="65">
@@ -2687,22 +2687,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="I65" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="66">
@@ -2723,33 +2723,33 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I66" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="67">
@@ -2759,19 +2759,19 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>150</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="I67" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="68">
@@ -2795,22 +2795,22 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
@@ -2818,10 +2818,10 @@
         </is>
       </c>
       <c r="I68" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="69">
@@ -2831,22 +2831,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="I69" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="70">
@@ -2867,33 +2867,33 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F70" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G70" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I70" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="71">
@@ -2903,22 +2903,22 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="I71" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="I72" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="73">
@@ -2978,19 +2978,19 @@
         <v>60</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="I73" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="74">
@@ -3011,22 +3011,22 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C74" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D74" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="I74" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="75">
@@ -3047,33 +3047,33 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F75" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
           <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I75" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="76">
@@ -3083,22 +3083,22 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H76" s="0" t="inlineStr">
         <is>
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="I76" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="77">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="I77" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="78">
@@ -3155,22 +3155,22 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="I78" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="79">
@@ -3191,22 +3191,22 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="I79" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.009235192500938258</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3282582513259977</v>
       </c>
     </row>
     <row r="80">
@@ -3227,33 +3227,33 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 1 ships</t>
         </is>
       </c>
       <c r="I80" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.01406581218396164</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3190237104568555</v>
       </c>
     </row>
     <row r="81">
@@ -3266,30 +3266,30 @@
         <v>60</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 3 ships</t>
         </is>
       </c>
       <c r="I81" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0155689541644502</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.316097911370269</v>
       </c>
     </row>
     <row r="82">
@@ -3299,33 +3299,33 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 3 ships</t>
         </is>
       </c>
       <c r="I82" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0155689541644502</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.316097911370269</v>
       </c>
     </row>
     <row r="83">
@@ -3338,30 +3338,30 @@
         <v>60</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 3 ships</t>
         </is>
       </c>
       <c r="I83" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0155689541644502</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.316097911370269</v>
       </c>
     </row>
     <row r="84">
@@ -3374,30 +3374,30 @@
         <v>60</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 3 ships</t>
         </is>
       </c>
       <c r="I84" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0155689541644502</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.316097911370269</v>
       </c>
     </row>
     <row r="85">
@@ -3407,33 +3407,33 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G85" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
       <c r="I85" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0261668643389323</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.3256674603474103</v>
       </c>
     </row>
     <row r="86">
@@ -3443,33 +3443,33 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 3 ships</t>
         </is>
       </c>
       <c r="I86" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.03959634266134121</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.2752482889461089</v>
       </c>
     </row>
     <row r="87">
@@ -3479,33 +3479,33 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I87" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.04640191110972971</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.2672146210721471</v>
       </c>
     </row>
     <row r="88">
@@ -3515,33 +3515,33 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
       <c r="I88" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.05562341605285041</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.2639685111583024</v>
       </c>
     </row>
     <row r="89">
@@ -3551,33 +3551,33 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
       <c r="I89" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.05562341605285041</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.2639685111583024</v>
       </c>
     </row>
     <row r="90">
@@ -3587,33 +3587,33 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
       <c r="I90" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.06267454085167733</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0007677295591366022</v>
       </c>
     </row>
     <row r="91">
@@ -3623,33 +3623,33 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
       <c r="I91" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.06267454085167733</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0007677295591366022</v>
       </c>
     </row>
     <row r="92">
@@ -3662,30 +3662,30 @@
         <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G92" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="G92" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H92" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I92" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="93">
@@ -3695,33 +3695,33 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I93" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="94">
@@ -3731,33 +3731,33 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C94" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D94" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G94" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I94" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="95">
@@ -3770,30 +3770,30 @@
         <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I95" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="96">
@@ -3803,33 +3803,33 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H96" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I96" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="97">
@@ -3839,33 +3839,33 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I97" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="98">
@@ -3875,33 +3875,33 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I98" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.0643212318542264</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.0008238883441483407</v>
       </c>
     </row>
     <row r="99">
@@ -3911,33 +3911,33 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
       <c r="I99" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.1167003766830591</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.2197462457726136</v>
       </c>
     </row>
     <row r="100">
@@ -3947,33 +3947,33 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D100" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H100" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
       <c r="I100" s="0" t="n">
-        <v>-0.1208794106022859</v>
+        <v>-0.1890020487826485</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.01632685147279231</v>
+        <v>0.07868732970801602</v>
       </c>
     </row>
     <row r="101">
